--- a/natmiOut/OldD7/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Thbd</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H2">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I2">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J2">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.8493823070119</v>
+        <v>44.32293066666667</v>
       </c>
       <c r="N2">
-        <v>43.8493823070119</v>
+        <v>132.968792</v>
       </c>
       <c r="O2">
-        <v>0.6419167970937003</v>
+        <v>0.6264651541551962</v>
       </c>
       <c r="P2">
-        <v>0.6419167970937003</v>
+        <v>0.6264651541551961</v>
       </c>
       <c r="Q2">
-        <v>28.82466476786388</v>
+        <v>29.87536908931911</v>
       </c>
       <c r="R2">
-        <v>28.82466476786388</v>
+        <v>268.878321803872</v>
       </c>
       <c r="S2">
-        <v>0.1997373182524476</v>
+        <v>0.1915930405692093</v>
       </c>
       <c r="T2">
-        <v>0.1997373182524476</v>
+        <v>0.1915930405692093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H3">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I3">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J3">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.1932061398351</v>
+        <v>17.71526766666667</v>
       </c>
       <c r="N3">
-        <v>17.1932061398351</v>
+        <v>53.145803</v>
       </c>
       <c r="O3">
-        <v>0.2516935755167945</v>
+        <v>0.2503895325235164</v>
       </c>
       <c r="P3">
-        <v>0.2516935755167945</v>
+        <v>0.2503895325235164</v>
       </c>
       <c r="Q3">
-        <v>11.30206121937268</v>
+        <v>11.94077539768311</v>
       </c>
       <c r="R3">
-        <v>11.30206121937268</v>
+        <v>107.466978579148</v>
       </c>
       <c r="S3">
-        <v>0.07831637997744459</v>
+        <v>0.07657711134400771</v>
       </c>
       <c r="T3">
-        <v>0.07831637997744459</v>
+        <v>0.07657711134400771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H4">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I4">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J4">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.01518598961458</v>
+        <v>4.575739333333334</v>
       </c>
       <c r="N4">
-        <v>4.01518598961458</v>
+        <v>13.727218</v>
       </c>
       <c r="O4">
-        <v>0.05877882867637886</v>
+        <v>0.06467400065191224</v>
       </c>
       <c r="P4">
-        <v>0.05877882867637886</v>
+        <v>0.06467400065191224</v>
       </c>
       <c r="Q4">
-        <v>2.639407536483286</v>
+        <v>3.084225239254223</v>
       </c>
       <c r="R4">
-        <v>2.639407536483286</v>
+        <v>27.758027153288</v>
       </c>
       <c r="S4">
-        <v>0.0182894818502876</v>
+        <v>0.01977937375844085</v>
       </c>
       <c r="T4">
-        <v>0.0182894818502876</v>
+        <v>0.01977937375844085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H5">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I5">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J5">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.25229706430212</v>
+        <v>4.136894000000001</v>
       </c>
       <c r="N5">
-        <v>3.25229706430212</v>
+        <v>12.410682</v>
       </c>
       <c r="O5">
-        <v>0.04761079871312621</v>
+        <v>0.05847131266937523</v>
       </c>
       <c r="P5">
-        <v>0.04761079871312621</v>
+        <v>0.05847131266937522</v>
       </c>
       <c r="Q5">
-        <v>2.137917746426854</v>
+        <v>2.788426515901334</v>
       </c>
       <c r="R5">
-        <v>2.137917746426854</v>
+        <v>25.095838643112</v>
       </c>
       <c r="S5">
-        <v>0.01481446395836997</v>
+        <v>0.01788239378693878</v>
       </c>
       <c r="T5">
-        <v>0.01481446395836997</v>
+        <v>0.01788239378693878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J6">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.8493823070119</v>
+        <v>44.32293066666667</v>
       </c>
       <c r="N6">
-        <v>43.8493823070119</v>
+        <v>132.968792</v>
       </c>
       <c r="O6">
-        <v>0.6419167970937003</v>
+        <v>0.6264651541551962</v>
       </c>
       <c r="P6">
-        <v>0.6419167970937003</v>
+        <v>0.6264651541551961</v>
       </c>
       <c r="Q6">
-        <v>42.11871312773682</v>
+        <v>43.13475108997512</v>
       </c>
       <c r="R6">
-        <v>42.11871312773682</v>
+        <v>388.212759809776</v>
       </c>
       <c r="S6">
-        <v>0.2918569522361787</v>
+        <v>0.276626477511167</v>
       </c>
       <c r="T6">
-        <v>0.2918569522361787</v>
+        <v>0.2766264775111669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J7">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.1932061398351</v>
+        <v>17.71526766666667</v>
       </c>
       <c r="N7">
-        <v>17.1932061398351</v>
+        <v>53.145803</v>
       </c>
       <c r="O7">
-        <v>0.2516935755167945</v>
+        <v>0.2503895325235164</v>
       </c>
       <c r="P7">
-        <v>0.2516935755167945</v>
+        <v>0.2503895325235164</v>
       </c>
       <c r="Q7">
-        <v>16.51461614851435</v>
+        <v>17.24036858123711</v>
       </c>
       <c r="R7">
-        <v>16.51461614851435</v>
+        <v>155.163317231134</v>
       </c>
       <c r="S7">
-        <v>0.1144362013587182</v>
+        <v>0.1105638101788005</v>
       </c>
       <c r="T7">
-        <v>0.1144362013587182</v>
+        <v>0.1105638101788005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H8">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I8">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J8">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.01518598961458</v>
+        <v>4.575739333333334</v>
       </c>
       <c r="N8">
-        <v>4.01518598961458</v>
+        <v>13.727218</v>
       </c>
       <c r="O8">
-        <v>0.05877882867637886</v>
+        <v>0.06467400065191224</v>
       </c>
       <c r="P8">
-        <v>0.05877882867637886</v>
+        <v>0.06467400065191224</v>
       </c>
       <c r="Q8">
-        <v>3.856712636612026</v>
+        <v>4.453075963778223</v>
       </c>
       <c r="R8">
-        <v>3.856712636612026</v>
+        <v>40.077683674004</v>
       </c>
       <c r="S8">
-        <v>0.02672466255933839</v>
+        <v>0.02855791877366146</v>
       </c>
       <c r="T8">
-        <v>0.02672466255933839</v>
+        <v>0.02855791877366146</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H9">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I9">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J9">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.25229706430212</v>
+        <v>4.136894000000001</v>
       </c>
       <c r="N9">
-        <v>3.25229706430212</v>
+        <v>12.410682</v>
       </c>
       <c r="O9">
-        <v>0.04761079871312621</v>
+        <v>0.05847131266937523</v>
       </c>
       <c r="P9">
-        <v>0.04761079871312621</v>
+        <v>0.05847131266937522</v>
       </c>
       <c r="Q9">
-        <v>3.123933789954823</v>
+        <v>4.025994903577335</v>
       </c>
       <c r="R9">
-        <v>3.123933789954823</v>
+        <v>36.233954132196</v>
       </c>
       <c r="S9">
-        <v>0.02164695279646167</v>
+        <v>0.02581901507514068</v>
       </c>
       <c r="T9">
-        <v>0.02164695279646167</v>
+        <v>0.02581901507514067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.494727027838801</v>
+        <v>0.048595</v>
       </c>
       <c r="H10">
-        <v>0.494727027838801</v>
+        <v>0.145785</v>
       </c>
       <c r="I10">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="J10">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.8493823070119</v>
+        <v>44.32293066666667</v>
       </c>
       <c r="N10">
-        <v>43.8493823070119</v>
+        <v>132.968792</v>
       </c>
       <c r="O10">
-        <v>0.6419167970937003</v>
+        <v>0.6264651541551962</v>
       </c>
       <c r="P10">
-        <v>0.6419167970937003</v>
+        <v>0.6264651541551961</v>
       </c>
       <c r="Q10">
-        <v>21.6934745813153</v>
+        <v>2.153872815746667</v>
       </c>
       <c r="R10">
-        <v>21.6934745813153</v>
+        <v>19.38485534172</v>
       </c>
       <c r="S10">
-        <v>0.150322526605074</v>
+        <v>0.0138129520855293</v>
       </c>
       <c r="T10">
-        <v>0.150322526605074</v>
+        <v>0.0138129520855293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.494727027838801</v>
+        <v>0.048595</v>
       </c>
       <c r="H11">
-        <v>0.494727027838801</v>
+        <v>0.145785</v>
       </c>
       <c r="I11">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="J11">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.1932061398351</v>
+        <v>17.71526766666667</v>
       </c>
       <c r="N11">
-        <v>17.1932061398351</v>
+        <v>53.145803</v>
       </c>
       <c r="O11">
-        <v>0.2516935755167945</v>
+        <v>0.2503895325235164</v>
       </c>
       <c r="P11">
-        <v>0.2516935755167945</v>
+        <v>0.2503895325235164</v>
       </c>
       <c r="Q11">
-        <v>8.505943772580444</v>
+        <v>0.8608734322616666</v>
       </c>
       <c r="R11">
-        <v>8.505943772580444</v>
+        <v>7.747860890355</v>
       </c>
       <c r="S11">
-        <v>0.05894099418063171</v>
+        <v>0.0055208475563648</v>
       </c>
       <c r="T11">
-        <v>0.05894099418063171</v>
+        <v>0.0055208475563648</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.494727027838801</v>
+        <v>0.048595</v>
       </c>
       <c r="H12">
-        <v>0.494727027838801</v>
+        <v>0.145785</v>
       </c>
       <c r="I12">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="J12">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.01518598961458</v>
+        <v>4.575739333333334</v>
       </c>
       <c r="N12">
-        <v>4.01518598961458</v>
+        <v>13.727218</v>
       </c>
       <c r="O12">
-        <v>0.05877882867637886</v>
+        <v>0.06467400065191224</v>
       </c>
       <c r="P12">
-        <v>0.05877882867637886</v>
+        <v>0.06467400065191224</v>
       </c>
       <c r="Q12">
-        <v>1.986421030862016</v>
+        <v>0.2223580529033334</v>
       </c>
       <c r="R12">
-        <v>1.986421030862016</v>
+        <v>2.00122247613</v>
       </c>
       <c r="S12">
-        <v>0.01376468426675286</v>
+        <v>0.001425999301412134</v>
       </c>
       <c r="T12">
-        <v>0.01376468426675286</v>
+        <v>0.001425999301412134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.048595</v>
+      </c>
+      <c r="H13">
+        <v>0.145785</v>
+      </c>
+      <c r="I13">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="J13">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.136894000000001</v>
+      </c>
+      <c r="N13">
+        <v>12.410682</v>
+      </c>
+      <c r="O13">
+        <v>0.05847131266937523</v>
+      </c>
+      <c r="P13">
+        <v>0.05847131266937522</v>
+      </c>
+      <c r="Q13">
+        <v>0.20103236393</v>
+      </c>
+      <c r="R13">
+        <v>1.80929127537</v>
+      </c>
+      <c r="S13">
+        <v>0.001289236017235841</v>
+      </c>
+      <c r="T13">
+        <v>0.001289236017235841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.508125</v>
+      </c>
+      <c r="H14">
+        <v>1.524375</v>
+      </c>
+      <c r="I14">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J14">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>44.32293066666667</v>
+      </c>
+      <c r="N14">
+        <v>132.968792</v>
+      </c>
+      <c r="O14">
+        <v>0.6264651541551962</v>
+      </c>
+      <c r="P14">
+        <v>0.6264651541551961</v>
+      </c>
+      <c r="Q14">
+        <v>22.521589145</v>
+      </c>
+      <c r="R14">
+        <v>202.694302305</v>
+      </c>
+      <c r="S14">
+        <v>0.1444326839892906</v>
+      </c>
+      <c r="T14">
+        <v>0.1444326839892906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.508125</v>
+      </c>
+      <c r="H15">
+        <v>1.524375</v>
+      </c>
+      <c r="I15">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J15">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.71526766666667</v>
+      </c>
+      <c r="N15">
+        <v>53.145803</v>
+      </c>
+      <c r="O15">
+        <v>0.2503895325235164</v>
+      </c>
+      <c r="P15">
+        <v>0.2503895325235164</v>
+      </c>
+      <c r="Q15">
+        <v>9.001570383125001</v>
+      </c>
+      <c r="R15">
+        <v>81.01413344812501</v>
+      </c>
+      <c r="S15">
+        <v>0.05772776344434333</v>
+      </c>
+      <c r="T15">
+        <v>0.05772776344434333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.494727027838801</v>
-      </c>
-      <c r="H13">
-        <v>0.494727027838801</v>
-      </c>
-      <c r="I13">
-        <v>0.2341775870107532</v>
-      </c>
-      <c r="J13">
-        <v>0.2341775870107532</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.25229706430212</v>
-      </c>
-      <c r="N13">
-        <v>3.25229706430212</v>
-      </c>
-      <c r="O13">
-        <v>0.04761079871312621</v>
-      </c>
-      <c r="P13">
-        <v>0.04761079871312621</v>
-      </c>
-      <c r="Q13">
-        <v>1.608999260271046</v>
-      </c>
-      <c r="R13">
-        <v>1.608999260271046</v>
-      </c>
-      <c r="S13">
-        <v>0.01114938195829457</v>
-      </c>
-      <c r="T13">
-        <v>0.01114938195829457</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.508125</v>
+      </c>
+      <c r="H16">
+        <v>1.524375</v>
+      </c>
+      <c r="I16">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J16">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.575739333333334</v>
+      </c>
+      <c r="N16">
+        <v>13.727218</v>
+      </c>
+      <c r="O16">
+        <v>0.06467400065191224</v>
+      </c>
+      <c r="P16">
+        <v>0.06467400065191224</v>
+      </c>
+      <c r="Q16">
+        <v>2.325047548750001</v>
+      </c>
+      <c r="R16">
+        <v>20.92542793875</v>
+      </c>
+      <c r="S16">
+        <v>0.01491070881839779</v>
+      </c>
+      <c r="T16">
+        <v>0.01491070881839779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.508125</v>
+      </c>
+      <c r="H17">
+        <v>1.524375</v>
+      </c>
+      <c r="I17">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J17">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.136894000000001</v>
+      </c>
+      <c r="N17">
+        <v>12.410682</v>
+      </c>
+      <c r="O17">
+        <v>0.05847131266937523</v>
+      </c>
+      <c r="P17">
+        <v>0.05847131266937522</v>
+      </c>
+      <c r="Q17">
+        <v>2.102059263750001</v>
+      </c>
+      <c r="R17">
+        <v>18.91853337375</v>
+      </c>
+      <c r="S17">
+        <v>0.01348066779005992</v>
+      </c>
+      <c r="T17">
+        <v>0.01348066779005992</v>
       </c>
     </row>
   </sheetData>
